--- a/data/1/МСТиГ/!печать/Д/Номера зачеток дфпо 1 курс.xlsx
+++ b/data/1/МСТиГ/!печать/Д/Номера зачеток дфпо 1 курс.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Студенческие\2023-24\МСТиГ\!печать\Д\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwlo\zachetker\data-sharer\data\1\МСТиГ\!печать\Д\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD04B1C0-C405-4FAC-AD45-7444BCCF2693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F67841-F866-4AD2-8C0A-937EA0E81095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="411" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="509">
   <si>
     <t>411</t>
   </si>
@@ -1549,13 +1549,16 @@
   </si>
   <si>
     <t>0813205</t>
+  </si>
+  <si>
+    <t>N_ZACHET</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1599,6 +1602,12 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1651,7 +1660,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1697,6 +1706,17 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1709,16 +1729,8 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2064,38 +2076,38 @@
       <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="5" customWidth="1"/>
-    <col min="4" max="7" width="8.7109375" style="5"/>
-    <col min="8" max="8" width="18.85546875" style="17" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" style="17" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.7109375" style="5"/>
+    <col min="1" max="1" width="7.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" style="5" customWidth="1"/>
+    <col min="4" max="7" width="8.6640625" style="5"/>
+    <col min="8" max="8" width="18.88671875" style="17" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.88671875" style="17" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>334</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="18"/>
       <c r="J2" s="18"/>
     </row>
-    <row r="3" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -2119,7 +2131,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -2138,7 +2150,7 @@
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
     </row>
-    <row r="5" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -2157,7 +2169,7 @@
       <c r="J5" s="19"/>
       <c r="K5" s="20"/>
     </row>
-    <row r="6" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -2176,7 +2188,7 @@
       <c r="J6" s="19"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -2195,7 +2207,7 @@
       <c r="J7" s="19"/>
       <c r="K7" s="20"/>
     </row>
-    <row r="8" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -2214,7 +2226,7 @@
       <c r="J8" s="19"/>
       <c r="K8" s="20"/>
     </row>
-    <row r="9" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -2233,7 +2245,7 @@
       <c r="J9" s="19"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -2252,7 +2264,7 @@
       <c r="J10" s="19"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -2271,7 +2283,7 @@
       <c r="J11" s="19"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -2290,7 +2302,7 @@
       <c r="J12" s="19"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -2309,7 +2321,7 @@
       <c r="J13" s="19"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -2328,7 +2340,7 @@
       <c r="J14" s="19"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -2347,7 +2359,7 @@
       <c r="J15" s="19"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -2366,7 +2378,7 @@
       <c r="J16" s="19"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -2385,7 +2397,7 @@
       <c r="J17" s="19"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>15</v>
       </c>
@@ -2404,7 +2416,7 @@
       <c r="J18" s="19"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>16</v>
       </c>
@@ -2423,7 +2435,7 @@
       <c r="J19" s="19"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>17</v>
       </c>
@@ -2442,7 +2454,7 @@
       <c r="J20" s="19"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>18</v>
       </c>
@@ -2461,7 +2473,7 @@
       <c r="J21" s="19"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>19</v>
       </c>
@@ -2480,7 +2492,7 @@
       <c r="J22" s="19"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>20</v>
       </c>
@@ -2499,7 +2511,7 @@
       <c r="J23" s="19"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>21</v>
       </c>
@@ -2518,7 +2530,7 @@
       <c r="J24" s="19"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>22</v>
       </c>
@@ -2537,7 +2549,7 @@
       <c r="J25" s="19"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
@@ -2546,7 +2558,7 @@
       <c r="J26" s="19"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="6" t="s">
         <v>503</v>
@@ -2563,7 +2575,7 @@
       <c r="J27" s="19"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
@@ -2572,7 +2584,7 @@
       <c r="J28" s="19"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
@@ -2600,36 +2612,36 @@
       <selection activeCell="M6" sqref="M6:N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" style="17" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" style="17" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" style="17" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.88671875" style="17" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
         <v>334</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="18"/>
       <c r="J2" s="18"/>
     </row>
-    <row r="3" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2653,7 +2665,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -2672,7 +2684,7 @@
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
     </row>
-    <row r="5" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>2</v>
       </c>
@@ -2691,7 +2703,7 @@
       <c r="J5" s="19"/>
       <c r="K5" s="20"/>
     </row>
-    <row r="6" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>3</v>
       </c>
@@ -2710,7 +2722,7 @@
       <c r="J6" s="19"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>4</v>
       </c>
@@ -2729,7 +2741,7 @@
       <c r="J7" s="19"/>
       <c r="K7" s="20"/>
     </row>
-    <row r="8" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>5</v>
       </c>
@@ -2748,7 +2760,7 @@
       <c r="J8" s="19"/>
       <c r="K8" s="20"/>
     </row>
-    <row r="9" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>6</v>
       </c>
@@ -2767,7 +2779,7 @@
       <c r="J9" s="19"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>7</v>
       </c>
@@ -2786,7 +2798,7 @@
       <c r="J10" s="19"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>8</v>
       </c>
@@ -2805,7 +2817,7 @@
       <c r="J11" s="19"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>9</v>
       </c>
@@ -2824,7 +2836,7 @@
       <c r="J12" s="19"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>10</v>
       </c>
@@ -2843,7 +2855,7 @@
       <c r="J13" s="19"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>11</v>
       </c>
@@ -2862,7 +2874,7 @@
       <c r="J14" s="19"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>12</v>
       </c>
@@ -2881,7 +2893,7 @@
       <c r="J15" s="19"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>13</v>
       </c>
@@ -2900,7 +2912,7 @@
       <c r="J16" s="19"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>14</v>
       </c>
@@ -2919,7 +2931,7 @@
       <c r="J17" s="19"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>15</v>
       </c>
@@ -2938,7 +2950,7 @@
       <c r="J18" s="19"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>16</v>
       </c>
@@ -2957,7 +2969,7 @@
       <c r="J19" s="19"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>17</v>
       </c>
@@ -2976,7 +2988,7 @@
       <c r="J20" s="19"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>18</v>
       </c>
@@ -2995,7 +3007,7 @@
       <c r="J21" s="19"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>19</v>
       </c>
@@ -3014,7 +3026,7 @@
       <c r="J22" s="19"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>20</v>
       </c>
@@ -3033,7 +3045,7 @@
       <c r="J23" s="19"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>21</v>
       </c>
@@ -3067,48 +3079,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" style="17" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" style="17" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5546875" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" style="17" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.88671875" style="17" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="9"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="18"/>
       <c r="J2" s="18"/>
     </row>
-    <row r="3" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
+      <c r="C3" s="30" t="s">
+        <v>508</v>
       </c>
       <c r="D3" s="2"/>
       <c r="H3" s="3" t="s">
@@ -3124,7 +3136,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -3143,7 +3155,7 @@
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
     </row>
-    <row r="5" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>2</v>
       </c>
@@ -3162,7 +3174,7 @@
       <c r="J5" s="19"/>
       <c r="K5" s="20"/>
     </row>
-    <row r="6" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>3</v>
       </c>
@@ -3181,7 +3193,7 @@
       <c r="J6" s="19"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>4</v>
       </c>
@@ -3200,7 +3212,7 @@
       <c r="J7" s="19"/>
       <c r="K7" s="20"/>
     </row>
-    <row r="8" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>5</v>
       </c>
@@ -3219,7 +3231,7 @@
       <c r="J8" s="19"/>
       <c r="K8" s="20"/>
     </row>
-    <row r="9" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>6</v>
       </c>
@@ -3238,7 +3250,7 @@
       <c r="J9" s="19"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>7</v>
       </c>
@@ -3257,7 +3269,7 @@
       <c r="J10" s="19"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>8</v>
       </c>
@@ -3276,7 +3288,7 @@
       <c r="J11" s="19"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>9</v>
       </c>
@@ -3295,7 +3307,7 @@
       <c r="J12" s="19"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>10</v>
       </c>
@@ -3314,7 +3326,7 @@
       <c r="J13" s="19"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>11</v>
       </c>
@@ -3333,7 +3345,7 @@
       <c r="J14" s="19"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>12</v>
       </c>
@@ -3352,7 +3364,7 @@
       <c r="J15" s="19"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>13</v>
       </c>
@@ -3371,7 +3383,7 @@
       <c r="J16" s="19"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>14</v>
       </c>
@@ -3390,7 +3402,7 @@
       <c r="J17" s="19"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>15</v>
       </c>
@@ -3409,7 +3421,7 @@
       <c r="J18" s="19"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>16</v>
       </c>
@@ -3428,7 +3440,7 @@
       <c r="J19" s="19"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>17</v>
       </c>
@@ -3447,7 +3459,7 @@
       <c r="J20" s="19"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>18</v>
       </c>
@@ -3466,7 +3478,7 @@
       <c r="J21" s="19"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>19</v>
       </c>
@@ -3485,7 +3497,7 @@
       <c r="J22" s="19"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>20</v>
       </c>
@@ -3504,7 +3516,7 @@
       <c r="J23" s="19"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>21</v>
       </c>
@@ -3523,7 +3535,7 @@
       <c r="J24" s="19"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>22</v>
       </c>
@@ -3542,7 +3554,7 @@
       <c r="J25" s="19"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>23</v>
       </c>
@@ -3561,7 +3573,7 @@
       <c r="J26" s="19"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>24</v>
       </c>
@@ -3580,7 +3592,7 @@
       <c r="J27" s="19"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>25</v>
       </c>
@@ -3599,7 +3611,7 @@
       <c r="J28" s="19"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>26</v>
       </c>
@@ -3618,7 +3630,7 @@
       <c r="J29" s="19"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
         <v>27</v>
       </c>
@@ -3637,7 +3649,7 @@
       <c r="J30" s="19"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>28</v>
       </c>
@@ -3656,7 +3668,7 @@
       <c r="J31" s="19"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>29</v>
       </c>
@@ -3675,7 +3687,7 @@
       <c r="J32" s="19"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
         <v>30</v>
       </c>
@@ -3694,7 +3706,7 @@
       <c r="J33" s="19"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
         <v>31</v>
       </c>
@@ -3713,7 +3725,7 @@
       <c r="J34" s="19"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
         <v>32</v>
       </c>
@@ -3732,7 +3744,7 @@
       <c r="J35" s="19"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
         <v>33</v>
       </c>
@@ -3751,24 +3763,24 @@
       <c r="J36" s="19"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" s="27" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="25">
+    <row r="37" spans="1:11" s="23" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="21">
         <v>34</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="H37" s="28" t="s">
+      <c r="H37" s="24" t="s">
         <v>507</v>
       </c>
-      <c r="I37" s="29" t="s">
+      <c r="I37" s="25" t="s">
         <v>506</v>
       </c>
-      <c r="J37" s="28"/>
-      <c r="K37" s="29"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3789,38 +3801,38 @@
       <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.85546875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="16" customWidth="1"/>
-    <col min="4" max="7" width="8.7109375" style="16"/>
-    <col min="8" max="8" width="18.85546875" style="17" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" style="17" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.7109375" style="16"/>
+    <col min="1" max="1" width="7.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" style="16" customWidth="1"/>
+    <col min="4" max="7" width="8.6640625" style="16"/>
+    <col min="8" max="8" width="18.88671875" style="17" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.88671875" style="17" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.6640625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="8"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="18"/>
       <c r="J2" s="18"/>
     </row>
-    <row r="3" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -3844,7 +3856,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -3863,7 +3875,7 @@
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
     </row>
-    <row r="5" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>2</v>
       </c>
@@ -3882,7 +3894,7 @@
       <c r="J5" s="19"/>
       <c r="K5" s="20"/>
     </row>
-    <row r="6" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>3</v>
       </c>
@@ -3901,7 +3913,7 @@
       <c r="J6" s="19"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>4</v>
       </c>
@@ -3920,7 +3932,7 @@
       <c r="J7" s="19"/>
       <c r="K7" s="20"/>
     </row>
-    <row r="8" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>5</v>
       </c>
@@ -3939,7 +3951,7 @@
       <c r="J8" s="19"/>
       <c r="K8" s="20"/>
     </row>
-    <row r="9" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>6</v>
       </c>
@@ -3958,7 +3970,7 @@
       <c r="J9" s="19"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>7</v>
       </c>
@@ -3977,7 +3989,7 @@
       <c r="J10" s="19"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>8</v>
       </c>
@@ -3996,7 +4008,7 @@
       <c r="J11" s="19"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>9</v>
       </c>
@@ -4015,7 +4027,7 @@
       <c r="J12" s="19"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>10</v>
       </c>
@@ -4034,7 +4046,7 @@
       <c r="J13" s="19"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>11</v>
       </c>
@@ -4053,7 +4065,7 @@
       <c r="J14" s="19"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>12</v>
       </c>
@@ -4072,7 +4084,7 @@
       <c r="J15" s="19"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>13</v>
       </c>
@@ -4091,7 +4103,7 @@
       <c r="J16" s="19"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>14</v>
       </c>
@@ -4110,7 +4122,7 @@
       <c r="J17" s="19"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>15</v>
       </c>
@@ -4129,7 +4141,7 @@
       <c r="J18" s="19"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>16</v>
       </c>
@@ -4148,7 +4160,7 @@
       <c r="J19" s="19"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>17</v>
       </c>
@@ -4167,7 +4179,7 @@
       <c r="J20" s="19"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>18</v>
       </c>
@@ -4186,7 +4198,7 @@
       <c r="J21" s="19"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>19</v>
       </c>
@@ -4205,7 +4217,7 @@
       <c r="J22" s="19"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>20</v>
       </c>
@@ -4224,7 +4236,7 @@
       <c r="J23" s="19"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>21</v>
       </c>
@@ -4243,7 +4255,7 @@
       <c r="J24" s="19"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>22</v>
       </c>
@@ -4262,7 +4274,7 @@
       <c r="J25" s="19"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>23</v>
       </c>
@@ -4281,7 +4293,7 @@
       <c r="J26" s="19"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>24</v>
       </c>
@@ -4300,7 +4312,7 @@
       <c r="J27" s="19"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>25</v>
       </c>
@@ -4319,7 +4331,7 @@
       <c r="J28" s="19"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>26</v>
       </c>
@@ -4338,7 +4350,7 @@
       <c r="J29" s="19"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
         <v>27</v>
       </c>
@@ -4357,7 +4369,7 @@
       <c r="J30" s="19"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>28</v>
       </c>
@@ -4376,7 +4388,7 @@
       <c r="J31" s="19"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>29</v>
       </c>
@@ -4395,7 +4407,7 @@
       <c r="J32" s="19"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
         <v>30</v>
       </c>
@@ -4414,7 +4426,7 @@
       <c r="J33" s="19"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
         <v>31</v>
       </c>
@@ -4433,7 +4445,7 @@
       <c r="J34" s="19"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
         <v>32</v>
       </c>
@@ -4452,7 +4464,7 @@
       <c r="J35" s="19"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
         <v>33</v>
       </c>
@@ -4490,38 +4502,38 @@
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="16" customWidth="1"/>
-    <col min="4" max="7" width="8.7109375" style="16"/>
-    <col min="8" max="8" width="18.85546875" style="17" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" style="17" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.7109375" style="16"/>
+    <col min="1" max="1" width="7.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5546875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" style="16" customWidth="1"/>
+    <col min="4" max="7" width="8.6640625" style="16"/>
+    <col min="8" max="8" width="18.88671875" style="17" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.88671875" style="17" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.6640625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>336</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="18"/>
       <c r="J2" s="18"/>
     </row>
-    <row r="3" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -4545,7 +4557,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -4564,7 +4576,7 @@
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
     </row>
-    <row r="5" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>2</v>
       </c>
@@ -4583,7 +4595,7 @@
       <c r="J5" s="19"/>
       <c r="K5" s="20"/>
     </row>
-    <row r="6" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>3</v>
       </c>
@@ -4602,7 +4614,7 @@
       <c r="J6" s="19"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>4</v>
       </c>
@@ -4621,7 +4633,7 @@
       <c r="J7" s="19"/>
       <c r="K7" s="20"/>
     </row>
-    <row r="8" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>5</v>
       </c>
@@ -4640,7 +4652,7 @@
       <c r="J8" s="19"/>
       <c r="K8" s="20"/>
     </row>
-    <row r="9" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>6</v>
       </c>
@@ -4659,7 +4671,7 @@
       <c r="J9" s="19"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>7</v>
       </c>
@@ -4678,7 +4690,7 @@
       <c r="J10" s="19"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>8</v>
       </c>
@@ -4697,7 +4709,7 @@
       <c r="J11" s="19"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>9</v>
       </c>
@@ -4716,7 +4728,7 @@
       <c r="J12" s="19"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>10</v>
       </c>
@@ -4735,7 +4747,7 @@
       <c r="J13" s="19"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>11</v>
       </c>
@@ -4754,7 +4766,7 @@
       <c r="J14" s="19"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>12</v>
       </c>
@@ -4773,7 +4785,7 @@
       <c r="J15" s="19"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>13</v>
       </c>
@@ -4792,7 +4804,7 @@
       <c r="J16" s="19"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>14</v>
       </c>
@@ -4811,7 +4823,7 @@
       <c r="J17" s="19"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>15</v>
       </c>
@@ -4830,7 +4842,7 @@
       <c r="J18" s="19"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>16</v>
       </c>
@@ -4849,7 +4861,7 @@
       <c r="J19" s="19"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>17</v>
       </c>
@@ -4868,7 +4880,7 @@
       <c r="J20" s="19"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>18</v>
       </c>
@@ -4887,7 +4899,7 @@
       <c r="J21" s="19"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>19</v>
       </c>
@@ -4906,7 +4918,7 @@
       <c r="J22" s="19"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>20</v>
       </c>
@@ -4925,7 +4937,7 @@
       <c r="J23" s="19"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>21</v>
       </c>
@@ -4944,7 +4956,7 @@
       <c r="J24" s="19"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>22</v>
       </c>
@@ -4963,7 +4975,7 @@
       <c r="J25" s="19"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>23</v>
       </c>
@@ -4982,7 +4994,7 @@
       <c r="J26" s="19"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>24</v>
       </c>
@@ -5001,7 +5013,7 @@
       <c r="J27" s="19"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>25</v>
       </c>
@@ -5020,7 +5032,7 @@
       <c r="J28" s="19"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>26</v>
       </c>
@@ -5039,7 +5051,7 @@
       <c r="J29" s="19"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
         <v>27</v>
       </c>
@@ -5058,7 +5070,7 @@
       <c r="J30" s="19"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>28</v>
       </c>
@@ -5077,7 +5089,7 @@
       <c r="J31" s="19"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>29</v>
       </c>
@@ -5115,27 +5127,27 @@
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.85546875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="16" customWidth="1"/>
-    <col min="4" max="7" width="8.7109375" style="16"/>
-    <col min="8" max="8" width="18.85546875" style="17" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" style="17" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.7109375" style="16"/>
+    <col min="1" max="1" width="7.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.88671875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" style="16" customWidth="1"/>
+    <col min="4" max="7" width="8.6640625" style="16"/>
+    <col min="8" max="8" width="18.88671875" style="17" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.88671875" style="17" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.6640625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="12" t="s">
         <v>287</v>
@@ -5146,7 +5158,7 @@
       <c r="H2" s="18"/>
       <c r="J2" s="18"/>
     </row>
-    <row r="3" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -5170,7 +5182,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -5189,7 +5201,7 @@
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
     </row>
-    <row r="5" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>2</v>
       </c>
@@ -5208,7 +5220,7 @@
       <c r="J5" s="19"/>
       <c r="K5" s="20"/>
     </row>
-    <row r="6" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>3</v>
       </c>
@@ -5227,7 +5239,7 @@
       <c r="J6" s="19"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>4</v>
       </c>
@@ -5246,7 +5258,7 @@
       <c r="J7" s="19"/>
       <c r="K7" s="20"/>
     </row>
-    <row r="8" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>5</v>
       </c>
@@ -5265,7 +5277,7 @@
       <c r="J8" s="19"/>
       <c r="K8" s="20"/>
     </row>
-    <row r="9" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>6</v>
       </c>
@@ -5284,7 +5296,7 @@
       <c r="J9" s="19"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>7</v>
       </c>
@@ -5303,7 +5315,7 @@
       <c r="J10" s="19"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>8</v>
       </c>
@@ -5322,7 +5334,7 @@
       <c r="J11" s="19"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>9</v>
       </c>
@@ -5341,7 +5353,7 @@
       <c r="J12" s="19"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>10</v>
       </c>
@@ -5360,7 +5372,7 @@
       <c r="J13" s="19"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>11</v>
       </c>
@@ -5379,7 +5391,7 @@
       <c r="J14" s="19"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>12</v>
       </c>
@@ -5398,7 +5410,7 @@
       <c r="J15" s="19"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>13</v>
       </c>
@@ -5417,7 +5429,7 @@
       <c r="J16" s="19"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>14</v>
       </c>
@@ -5436,7 +5448,7 @@
       <c r="J17" s="19"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>15</v>
       </c>
@@ -5455,7 +5467,7 @@
       <c r="J18" s="19"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>16</v>
       </c>
@@ -5474,7 +5486,7 @@
       <c r="J19" s="19"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>17</v>
       </c>
@@ -5493,7 +5505,7 @@
       <c r="J20" s="19"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>18</v>
       </c>
@@ -5512,7 +5524,7 @@
       <c r="J21" s="19"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>19</v>
       </c>
@@ -5531,7 +5543,7 @@
       <c r="J22" s="19"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>20</v>
       </c>
@@ -5550,7 +5562,7 @@
       <c r="J23" s="19"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>21</v>
       </c>
@@ -5569,7 +5581,7 @@
       <c r="J24" s="19"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>22</v>
       </c>
@@ -5588,7 +5600,7 @@
       <c r="J25" s="19"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>23</v>
       </c>
